--- a/RMD/input/news.xlsx
+++ b/RMD/input/news.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16425"/>
   </bookViews>
   <sheets>
-    <sheet name="international" sheetId="1" r:id="rId4"/>
-    <sheet name="china" sheetId="2" r:id="rId5"/>
+    <sheet name="international" sheetId="1" r:id="rId1"/>
+    <sheet name="china" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Pub</t>
   </si>
@@ -26,50 +29,119 @@
     <t xml:space="preserve">有线电视新闻网(CNN) </t>
   </si>
   <si>
-    <t>特朗普签署2万亿美元的经济援助法案</t>
-  </si>
-  <si>
-    <t>当地时间3月27日下午4时30分，美国总统特朗普发推文称他签署了美国有史以来金额最大的经济援助法 案(CARES法)，该法案总救济金额为2.2万亿美元，将为美国的家庭、工人和企业提供紧急救援。</t>
-  </si>
-  <si>
-    <t>BBC</t>
-  </si>
-  <si>
-    <t>新闻</t>
-  </si>
-  <si>
     <t>pub</t>
   </si>
   <si>
     <t>Content</t>
+  </si>
+  <si>
+    <t>北京时间4月2日，外交部副部长马兆旭表示，中国在3月安排了9次包机，将1457名海 外的中国公民带回国，其中包括来自伊朗，意大利等国家的海外留学生。</t>
+  </si>
+  <si>
+    <t>中国日报(China Daily)</t>
+  </si>
+  <si>
+    <t>中国安排9次包机从海外接回1457人</t>
+  </si>
+  <si>
+    <t>李文亮江学庆等14人获评烈士</t>
+  </si>
+  <si>
+    <t>财新网(Caixin.com)</t>
+  </si>
+  <si>
+    <t>北京时间4月2日，湖北省人民政府评定王兵、冯效林、江学庆、刘智明、李文亮、张 抗美、肖俊、吴涌、柳帆、夏思思、黄文军、梅仲明、彭银华、廖建军等14名牺牲在 新冠肺炎疫情防控一线人员为首批烈士。</t>
+  </si>
+  <si>
+    <t>英国广播公司(BBC)</t>
+  </si>
+  <si>
+    <t>有线电视新闻网(CNN)</t>
+  </si>
+  <si>
+    <t>环球时报(Global Times)</t>
+  </si>
+  <si>
+    <t>世界银行宣布19亿美元紧急资金</t>
+  </si>
+  <si>
+    <t>120万个N95口罩正从中国运往美国</t>
+  </si>
+  <si>
+    <t>当地时间4月1日，新英格兰爱国者队的飞机从中国深圳出发，运载120万个N95口罩前 往美国，预计将于4月2日达到波士顿洛根机场。</t>
+  </si>
+  <si>
+    <t>美国总统特朗普启用国防生产法，点名七家公司生产呼吸机</t>
+  </si>
+  <si>
+    <t>当地时间4月2日，白宫发布声明称，美国总统特朗普下令全面启用国防生产法，并在 声明中点名希望通用电气、美敦力、飞利浦等七家美国公司可以通过此法案更顺利地 获取生产呼吸机所需的材料。</t>
+  </si>
+  <si>
+    <t>意大利医护人员感染超1万</t>
+  </si>
+  <si>
+    <t>当地时间4月2日，意大利外科和牙科医生联合会发布公告称，意大利自疫情爆发以来 因感染新冠肺炎去世的医生达69人;另据卫生医疗行业协会通报，意大利目前感染新 冠肺炎的医护人员超过1万例。</t>
+  </si>
+  <si>
+    <t>澳大利亚将有100万家庭获得免费托儿服务</t>
+  </si>
+  <si>
+    <t>当地时间4月2日，澳大利亚总理斯科特·莫里森宣布，由于新冠肺炎疫情影响，澳大 利亚计划为约100万个家庭提供免费托儿服务。</t>
+  </si>
+  <si>
+    <t>据4月2日的报道称，世界银行已启动了一项19亿美元的应急基金，以帮助25个国家应 对新冠病毒大流行。 其中，印度将获得最大的一笔资金(10亿美元)来改善新冠筛 查、追踪和实验室诊断，资金还将用于购买个人防护设备和建立隔离病房。</t>
+  </si>
+  <si>
+    <t>非洲疾控中心(Africa CDC)</t>
+  </si>
+  <si>
+    <t>非洲新冠肺炎超7000例 蔓延50国</t>
+  </si>
+  <si>
+    <t>截至非洲东部时间4月3日17时，非洲共有50国出现新冠肺炎疫情，总数达7123例，死
+亡289例，治愈592例。</t>
+  </si>
+  <si>
+    <t>新闻来源</t>
+  </si>
+  <si>
+    <t>新闻标题</t>
+  </si>
+  <si>
+    <t>新闻内容</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -100,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -165,17 +237,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="10"/>
       </left>
@@ -184,196 +245,50 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -384,28 +299,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -607,7 +579,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -626,7 +598,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -656,7 +628,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -682,7 +654,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -708,7 +680,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -734,7 +706,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -760,7 +732,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -786,7 +758,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -812,7 +784,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -838,7 +810,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -864,7 +836,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -877,9 +849,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -896,7 +874,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -915,7 +893,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -941,7 +919,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -967,7 +945,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -993,7 +971,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1019,7 +997,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1045,7 +1023,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1071,7 +1049,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1097,7 +1075,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1123,7 +1101,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1149,7 +1127,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1162,9 +1140,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1178,7 +1162,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1197,7 +1181,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1227,7 +1211,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1253,7 +1237,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1279,7 +1263,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1305,7 +1289,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1331,7 +1315,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1357,7 +1341,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1383,7 +1367,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1409,7 +1393,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1435,7 +1419,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1448,155 +1432,149 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="20" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="63" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="46" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29" style="1" customWidth="1"/>
-    <col min="3" max="3" width="147.852" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.35156" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="8.28515625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="4"/>
     </row>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:5" ht="60" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="60" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="60" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="5" spans="1:5" ht="60" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="60" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4"/>
     </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
+    <row r="7" spans="1:5" ht="60" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
     </row>
-    <row r="5" ht="14.75" customHeight="1">
-      <c r="A5" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="14.75" customHeight="1">
-      <c r="A6" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="14.75" customHeight="1">
-      <c r="A7" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="14.75" customHeight="1">
-      <c r="A8" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" ht="14.75" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" ht="14.75" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
+    <row r="8" spans="1:5" ht="60" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1604,141 +1582,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="14.1" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="18" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" style="3" customWidth="1"/>
+    <col min="4" max="6" width="16.28515625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="16.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.35" customHeight="1">
-      <c r="A1" t="s" s="19">
+    <row r="1" spans="1:3" ht="14.25">
+      <c r="A1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s" s="19">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="19">
-        <v>9</v>
-      </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="C3" s="12" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="14.7" customHeight="1">
-      <c r="A2" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+    <row r="4" spans="1:3" ht="60" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" ht="14.7" customHeight="1">
-      <c r="A3" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-    </row>
-    <row r="4" ht="14.7" customHeight="1">
-      <c r="A4" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-    </row>
-    <row r="5" ht="14.7" customHeight="1">
-      <c r="A5" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-    </row>
-    <row r="6" ht="14.7" customHeight="1">
-      <c r="A6" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" ht="14.7" customHeight="1">
-      <c r="A7" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="8" ht="14.7" customHeight="1">
-      <c r="A8" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" ht="14.35" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-    </row>
-    <row r="10" ht="14.05" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-    </row>
+    <row r="5" spans="1:3" ht="74.25" customHeight="1"/>
+    <row r="6" spans="1:3" ht="74.25" customHeight="1"/>
+    <row r="7" spans="1:3" ht="74.25" customHeight="1"/>
+    <row r="8" spans="1:3" ht="74.25" customHeight="1"/>
+    <row r="9" spans="1:3" ht="74.25" customHeight="1"/>
+    <row r="10" spans="1:3" ht="74.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/RMD/input/news.xlsx
+++ b/RMD/input/news.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mingzhou/Desktop/COVID19/0706/DailyReport/RMD/input/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C797D8-9885-2742-8157-4218D57563E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="international" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="china" sheetId="2" r:id="rId5"/>
+    <sheet name="international" sheetId="1" r:id="rId1"/>
+    <sheet name="china" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgsyxYDXvz4Il9y2U+vz9BtmVDPdQ=="/>
@@ -31,10 +40,6 @@
     <t>华盛顿邮报(The Washington Post)</t>
   </si>
   <si>
-    <t xml:space="preserve">239科学家公开信：新冠可空气传播，WHO应更新防护指南
-</t>
-  </si>
-  <si>
     <t>据当地时间7月5日报道，来自32个国家的239名科学家近日联名给世界卫生组织发公开信指出，越来越多酒吧、餐厅、办公室等室内聚集感染为新冠病毒可以通过空气传播提供足够佐证，呼吁世卫组织承认新冠病毒空气传播的特性并更新防护指南。目前在截至6月29日世卫组织发布的预防新冠病毒传播的更新手册中，依然认为所谓的“空气传播”只有在产生气溶胶或小于5微米的病毒液滴的医疗操作环境下才有可能。</t>
   </si>
   <si>
@@ -47,16 +52,7 @@
     <t>当地时间7月6日，美国移民与海关执法局（ICE）发布新规定，如果国际学生就读的美国高校在今年9月选择继续网上授课，美国国务院将不会给这些学生发放入境签证，且海关与边境保卫局不会允许这些学生入境，目前人在美国的国际学生也需要立即离境，或转至当面授课的高校就读。</t>
   </si>
   <si>
-    <t>前FDA专员：算上未诊断的病例，美国每天可能有70万例感染</t>
-  </si>
-  <si>
-    <t>当地时间7月6日，前美国药监局专员斯科特·戈特利布在采访中表示，美国目前可能仅诊断出十二分之一的新冠病毒病例，这意味着每天新增真实感染的真实数量可能很快达到70万例。</t>
-  </si>
-  <si>
     <t>英国广播公司(BBC)</t>
-  </si>
-  <si>
-    <t>英国解封：周末夜酒吧重开，人潮汹涌</t>
   </si>
   <si>
     <t>当地时间7月4日，英格兰酒吧餐厅恢复营业，大批人潮晚间聚集在伦敦苏豪区饮酒作乐，现场挤得水泄不通，几乎没人保持安全社交距离。当地警察表示，苏豪区人潮到周日凌晨才逐渐散去，好在并没有发生“严重事故”。</t>
@@ -68,16 +64,10 @@
     <t>卢浮宫重开，游客保持距离欣赏蒙娜丽莎</t>
   </si>
   <si>
-    <t>当地时间7月6日，巴黎卢浮宫重新对外开放。马蒂内馆长表示，关闭三个半月后重新开放的博物馆和历史古迹采取“一切措施”保障工作人员和参观者的健康。而开馆后卢浮宫的参观人数预计将减少80%，长期闭馆已致卢浮宫亏损4千万欧元。</t>
-  </si>
-  <si>
     <t>新浪新闻</t>
   </si>
   <si>
     <t>印度新冠确诊病例已经超过俄罗斯，成为全球第三</t>
-  </si>
-  <si>
-    <t>当地时间7月5日，印度超过俄罗斯成为全球新冠肺炎确诊病例第三多的国家。印度5日单日通报近2.5万例新增病例，累计确诊病例将近70万。</t>
   </si>
   <si>
     <t>为抑制新冠传播，澳大利亚将关闭维多利亚州与新南威尔士州的边境</t>
@@ -95,40 +85,88 @@
     <t>7.4万名北京新发地相关人员隔离期满</t>
   </si>
   <si>
-    <t>北京时间7月5日，曾去过新发地市场牛羊肉综合交易大楼的人员及其同住人员共7.4万人，延长居家观察已满7天，完成了“14+7”天的隔离观察，已有序组织第三次核酸检测，检测结果为阴性且体温等症状排查无异常者，即可解除居家隔离观察。此外，新发地牛羊肉综合交易大楼工作隔离人员仍要采取“14+14”天的隔离观察措施。</t>
+    <t>英国解封：周末酒吧重开，人潮汹涌</t>
+  </si>
+  <si>
+    <t>当地时间7月6日，巴黎卢浮宫重新对外开放。马蒂内馆长表示，关闭三个半月后重新开放的博物馆和历史古迹采取“一切措施”保障工作人员和参观者的健康。如今长期闭馆已致卢浮宫亏损4千万欧元，而开馆后卢浮宫的参观人数预计将减少80%。</t>
+  </si>
+  <si>
+    <t>当地时间7月5日，印度超过俄罗斯成为全球新冠肺炎确诊病例第三多的国家。印度当日通报近2.5万例新增病例，累计确诊病例将近70万。</t>
+  </si>
+  <si>
+    <r>
+      <t>239名科学家公开信：新冠可通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">空气传播，建议WHO更新防护指南
+</t>
+    </r>
+  </si>
+  <si>
+    <t>北京时间7月5日，曾去过新发地市场牛羊肉综合交易大楼的人员及其同住人员共7.4万人，延长居家观察已满7天，完成了“14+7”天的隔离观察，已有序组织第三次核酸检测，检测结果为阴性且体温等症状排查无异常者，即可解除居家隔离观察。此外，新发地牛羊肉综合交易大楼工作人员仍要采取“14+14”天的隔离观察措施。</t>
+  </si>
+  <si>
+    <t>美国前药监局专员：算上未诊断的病例，美国每天可能有70万例感染</t>
+  </si>
+  <si>
+    <t>当地时间7月6日，美国前药监局专员斯科特·戈特利布在采访中表示，美国目前可能仅诊断出十二分之一的新冠病毒病例，这意味着每天新增真实感染的数量可能很快达到70万例。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -136,7 +174,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -158,7 +196,13 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFA5A5A5"/>
@@ -172,6 +216,7 @@
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -186,6 +231,7 @@
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -196,12 +242,14 @@
         <color rgb="FFAAAAAA"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -210,75 +258,83 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -468,26 +524,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.71"/>
-    <col customWidth="1" min="2" max="2" width="50.71"/>
-    <col customWidth="1" min="3" max="3" width="80.71"/>
-    <col customWidth="1" min="4" max="23" width="8.29"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" customWidth="1"/>
+    <col min="4" max="23" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,15 +579,15 @@
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
     </row>
-    <row r="2" ht="60.0" customHeight="1">
+    <row r="2" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="5"/>
@@ -549,15 +610,15 @@
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
     </row>
-    <row r="3" ht="60.0" customHeight="1">
+    <row r="3" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="5"/>
@@ -580,15 +641,15 @@
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
     </row>
-    <row r="4" ht="60.0" customHeight="1">
+    <row r="4" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
+      <c r="C4" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="5"/>
@@ -611,15 +672,15 @@
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
     </row>
-    <row r="5" ht="60.0" customHeight="1">
+    <row r="5" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
+      <c r="B5" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="5"/>
@@ -642,15 +703,15 @@
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
     </row>
-    <row r="6" ht="60.0" customHeight="1">
+    <row r="6" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>16</v>
+      <c r="C6" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="5"/>
@@ -673,15 +734,15 @@
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
     </row>
-    <row r="7" ht="60.0" customHeight="1">
+    <row r="7" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
+      <c r="C7" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="5"/>
@@ -707,15 +768,15 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
     </row>
-    <row r="8" ht="60.0" customHeight="1">
+    <row r="8" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="5"/>
@@ -741,7 +802,7 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" ht="63.0" customHeight="1">
+    <row r="9" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -766,7 +827,7 @@
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
     </row>
-    <row r="10" ht="63.0" customHeight="1">
+    <row r="10" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -791,7 +852,7 @@
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
     </row>
-    <row r="11" ht="63.0" customHeight="1">
+    <row r="11" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -816,7 +877,7 @@
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
     </row>
-    <row r="12" ht="63.0" customHeight="1">
+    <row r="12" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -841,7 +902,7 @@
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
     </row>
-    <row r="13" ht="63.0" customHeight="1">
+    <row r="13" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -866,7 +927,7 @@
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
     </row>
-    <row r="14" ht="63.0" customHeight="1">
+    <row r="14" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -891,7 +952,7 @@
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
     </row>
-    <row r="15" ht="63.0" customHeight="1">
+    <row r="15" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -916,7 +977,7 @@
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
     </row>
-    <row r="16" ht="63.0" customHeight="1">
+    <row r="16" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -941,7 +1002,7 @@
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
     </row>
-    <row r="17" ht="63.0" customHeight="1">
+    <row r="17" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -966,7 +1027,7 @@
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
     </row>
-    <row r="18" ht="63.0" customHeight="1">
+    <row r="18" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -991,7 +1052,7 @@
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
     </row>
-    <row r="19" ht="63.0" customHeight="1">
+    <row r="19" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1016,7 +1077,7 @@
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
     </row>
-    <row r="20" ht="63.0" customHeight="1">
+    <row r="20" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1041,7 +1102,7 @@
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
     </row>
-    <row r="21" ht="63.0" customHeight="1">
+    <row r="21" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1066,7 +1127,7 @@
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
     </row>
-    <row r="22" ht="63.0" customHeight="1">
+    <row r="22" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1091,7 +1152,7 @@
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
     </row>
-    <row r="23" ht="63.0" customHeight="1">
+    <row r="23" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1116,7 +1177,7 @@
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
     </row>
-    <row r="24" ht="63.0" customHeight="1">
+    <row r="24" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1141,7 +1202,7 @@
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
     </row>
-    <row r="25" ht="63.0" customHeight="1">
+    <row r="25" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1166,7 +1227,7 @@
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
     </row>
-    <row r="26" ht="63.0" customHeight="1">
+    <row r="26" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1191,7 +1252,7 @@
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
     </row>
-    <row r="27" ht="63.0" customHeight="1">
+    <row r="27" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1216,7 +1277,7 @@
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
     </row>
-    <row r="28" ht="63.0" customHeight="1">
+    <row r="28" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1241,7 +1302,7 @@
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
     </row>
-    <row r="29" ht="63.0" customHeight="1">
+    <row r="29" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1266,7 +1327,7 @@
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
     </row>
-    <row r="30" ht="63.0" customHeight="1">
+    <row r="30" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1291,7 +1352,7 @@
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
     </row>
-    <row r="31" ht="63.0" customHeight="1">
+    <row r="31" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1316,7 +1377,7 @@
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
     </row>
-    <row r="32" ht="63.0" customHeight="1">
+    <row r="32" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1341,7 +1402,7 @@
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
     </row>
-    <row r="33" ht="63.0" customHeight="1">
+    <row r="33" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1366,7 +1427,7 @@
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
     </row>
-    <row r="34" ht="63.0" customHeight="1">
+    <row r="34" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1391,7 +1452,7 @@
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
     </row>
-    <row r="35" ht="63.0" customHeight="1">
+    <row r="35" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1416,7 +1477,7 @@
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
     </row>
-    <row r="36" ht="63.0" customHeight="1">
+    <row r="36" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1441,7 +1502,7 @@
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
     </row>
-    <row r="37" ht="63.0" customHeight="1">
+    <row r="37" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1466,7 +1527,7 @@
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
     </row>
-    <row r="38" ht="63.0" customHeight="1">
+    <row r="38" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1491,7 +1552,7 @@
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
     </row>
-    <row r="39" ht="63.0" customHeight="1">
+    <row r="39" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1516,7 +1577,7 @@
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
     </row>
-    <row r="40" ht="63.0" customHeight="1">
+    <row r="40" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1541,7 +1602,7 @@
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
     </row>
-    <row r="41" ht="63.0" customHeight="1">
+    <row r="41" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1566,7 +1627,7 @@
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
     </row>
-    <row r="42" ht="63.0" customHeight="1">
+    <row r="42" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1591,7 +1652,7 @@
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
     </row>
-    <row r="43" ht="63.0" customHeight="1">
+    <row r="43" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1616,7 +1677,7 @@
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
     </row>
-    <row r="44" ht="63.0" customHeight="1">
+    <row r="44" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -1641,7 +1702,7 @@
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
     </row>
-    <row r="45" ht="63.0" customHeight="1">
+    <row r="45" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1666,7 +1727,7 @@
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
     </row>
-    <row r="46" ht="63.0" customHeight="1">
+    <row r="46" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -1691,7 +1752,7 @@
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
     </row>
-    <row r="47" ht="63.0" customHeight="1">
+    <row r="47" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1716,7 +1777,7 @@
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
     </row>
-    <row r="48" ht="63.0" customHeight="1">
+    <row r="48" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -1741,7 +1802,7 @@
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
     </row>
-    <row r="49" ht="63.0" customHeight="1">
+    <row r="49" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1766,7 +1827,7 @@
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
     </row>
-    <row r="50" ht="63.0" customHeight="1">
+    <row r="50" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -1791,7 +1852,7 @@
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
     </row>
-    <row r="51" ht="63.0" customHeight="1">
+    <row r="51" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -1816,7 +1877,7 @@
       <c r="V51" s="6"/>
       <c r="W51" s="6"/>
     </row>
-    <row r="52" ht="63.0" customHeight="1">
+    <row r="52" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -1841,7 +1902,7 @@
       <c r="V52" s="6"/>
       <c r="W52" s="6"/>
     </row>
-    <row r="53" ht="63.0" customHeight="1">
+    <row r="53" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -1866,7 +1927,7 @@
       <c r="V53" s="6"/>
       <c r="W53" s="6"/>
     </row>
-    <row r="54" ht="63.0" customHeight="1">
+    <row r="54" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -1891,7 +1952,7 @@
       <c r="V54" s="6"/>
       <c r="W54" s="6"/>
     </row>
-    <row r="55" ht="63.0" customHeight="1">
+    <row r="55" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -1916,7 +1977,7 @@
       <c r="V55" s="6"/>
       <c r="W55" s="6"/>
     </row>
-    <row r="56" ht="63.0" customHeight="1">
+    <row r="56" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -1941,7 +2002,7 @@
       <c r="V56" s="6"/>
       <c r="W56" s="6"/>
     </row>
-    <row r="57" ht="63.0" customHeight="1">
+    <row r="57" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -1966,7 +2027,7 @@
       <c r="V57" s="6"/>
       <c r="W57" s="6"/>
     </row>
-    <row r="58" ht="63.0" customHeight="1">
+    <row r="58" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -1991,7 +2052,7 @@
       <c r="V58" s="6"/>
       <c r="W58" s="6"/>
     </row>
-    <row r="59" ht="63.0" customHeight="1">
+    <row r="59" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -2016,7 +2077,7 @@
       <c r="V59" s="6"/>
       <c r="W59" s="6"/>
     </row>
-    <row r="60" ht="63.0" customHeight="1">
+    <row r="60" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -2041,7 +2102,7 @@
       <c r="V60" s="6"/>
       <c r="W60" s="6"/>
     </row>
-    <row r="61" ht="63.0" customHeight="1">
+    <row r="61" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -2066,7 +2127,7 @@
       <c r="V61" s="6"/>
       <c r="W61" s="6"/>
     </row>
-    <row r="62" ht="63.0" customHeight="1">
+    <row r="62" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -2091,7 +2152,7 @@
       <c r="V62" s="6"/>
       <c r="W62" s="6"/>
     </row>
-    <row r="63" ht="63.0" customHeight="1">
+    <row r="63" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -2116,7 +2177,7 @@
       <c r="V63" s="6"/>
       <c r="W63" s="6"/>
     </row>
-    <row r="64" ht="63.0" customHeight="1">
+    <row r="64" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -2141,7 +2202,7 @@
       <c r="V64" s="6"/>
       <c r="W64" s="6"/>
     </row>
-    <row r="65" ht="63.0" customHeight="1">
+    <row r="65" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -2166,7 +2227,7 @@
       <c r="V65" s="6"/>
       <c r="W65" s="6"/>
     </row>
-    <row r="66" ht="63.0" customHeight="1">
+    <row r="66" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -2191,7 +2252,7 @@
       <c r="V66" s="6"/>
       <c r="W66" s="6"/>
     </row>
-    <row r="67" ht="63.0" customHeight="1">
+    <row r="67" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -2216,7 +2277,7 @@
       <c r="V67" s="6"/>
       <c r="W67" s="6"/>
     </row>
-    <row r="68" ht="63.0" customHeight="1">
+    <row r="68" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -2241,7 +2302,7 @@
       <c r="V68" s="6"/>
       <c r="W68" s="6"/>
     </row>
-    <row r="69" ht="63.0" customHeight="1">
+    <row r="69" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -2266,7 +2327,7 @@
       <c r="V69" s="6"/>
       <c r="W69" s="6"/>
     </row>
-    <row r="70" ht="63.0" customHeight="1">
+    <row r="70" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -2291,7 +2352,7 @@
       <c r="V70" s="6"/>
       <c r="W70" s="6"/>
     </row>
-    <row r="71" ht="63.0" customHeight="1">
+    <row r="71" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -2316,7 +2377,7 @@
       <c r="V71" s="6"/>
       <c r="W71" s="6"/>
     </row>
-    <row r="72" ht="63.0" customHeight="1">
+    <row r="72" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -2341,7 +2402,7 @@
       <c r="V72" s="6"/>
       <c r="W72" s="6"/>
     </row>
-    <row r="73" ht="63.0" customHeight="1">
+    <row r="73" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -2366,7 +2427,7 @@
       <c r="V73" s="6"/>
       <c r="W73" s="6"/>
     </row>
-    <row r="74" ht="63.0" customHeight="1">
+    <row r="74" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -2391,7 +2452,7 @@
       <c r="V74" s="6"/>
       <c r="W74" s="6"/>
     </row>
-    <row r="75" ht="63.0" customHeight="1">
+    <row r="75" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -2416,7 +2477,7 @@
       <c r="V75" s="6"/>
       <c r="W75" s="6"/>
     </row>
-    <row r="76" ht="63.0" customHeight="1">
+    <row r="76" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -2441,7 +2502,7 @@
       <c r="V76" s="6"/>
       <c r="W76" s="6"/>
     </row>
-    <row r="77" ht="63.0" customHeight="1">
+    <row r="77" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -2466,7 +2527,7 @@
       <c r="V77" s="6"/>
       <c r="W77" s="6"/>
     </row>
-    <row r="78" ht="63.0" customHeight="1">
+    <row r="78" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -2491,7 +2552,7 @@
       <c r="V78" s="6"/>
       <c r="W78" s="6"/>
     </row>
-    <row r="79" ht="63.0" customHeight="1">
+    <row r="79" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -2516,7 +2577,7 @@
       <c r="V79" s="6"/>
       <c r="W79" s="6"/>
     </row>
-    <row r="80" ht="63.0" customHeight="1">
+    <row r="80" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -2541,7 +2602,7 @@
       <c r="V80" s="6"/>
       <c r="W80" s="6"/>
     </row>
-    <row r="81" ht="63.0" customHeight="1">
+    <row r="81" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -2566,7 +2627,7 @@
       <c r="V81" s="6"/>
       <c r="W81" s="6"/>
     </row>
-    <row r="82" ht="63.0" customHeight="1">
+    <row r="82" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -2591,7 +2652,7 @@
       <c r="V82" s="6"/>
       <c r="W82" s="6"/>
     </row>
-    <row r="83" ht="63.0" customHeight="1">
+    <row r="83" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -2616,7 +2677,7 @@
       <c r="V83" s="6"/>
       <c r="W83" s="6"/>
     </row>
-    <row r="84" ht="63.0" customHeight="1">
+    <row r="84" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -2641,7 +2702,7 @@
       <c r="V84" s="6"/>
       <c r="W84" s="6"/>
     </row>
-    <row r="85" ht="63.0" customHeight="1">
+    <row r="85" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -2666,7 +2727,7 @@
       <c r="V85" s="6"/>
       <c r="W85" s="6"/>
     </row>
-    <row r="86" ht="63.0" customHeight="1">
+    <row r="86" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -2691,7 +2752,7 @@
       <c r="V86" s="6"/>
       <c r="W86" s="6"/>
     </row>
-    <row r="87" ht="63.0" customHeight="1">
+    <row r="87" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -2716,7 +2777,7 @@
       <c r="V87" s="6"/>
       <c r="W87" s="6"/>
     </row>
-    <row r="88" ht="63.0" customHeight="1">
+    <row r="88" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -2741,7 +2802,7 @@
       <c r="V88" s="6"/>
       <c r="W88" s="6"/>
     </row>
-    <row r="89" ht="63.0" customHeight="1">
+    <row r="89" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -2766,7 +2827,7 @@
       <c r="V89" s="6"/>
       <c r="W89" s="6"/>
     </row>
-    <row r="90" ht="63.0" customHeight="1">
+    <row r="90" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -2791,7 +2852,7 @@
       <c r="V90" s="6"/>
       <c r="W90" s="6"/>
     </row>
-    <row r="91" ht="63.0" customHeight="1">
+    <row r="91" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -2816,7 +2877,7 @@
       <c r="V91" s="6"/>
       <c r="W91" s="6"/>
     </row>
-    <row r="92" ht="63.0" customHeight="1">
+    <row r="92" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -2841,7 +2902,7 @@
       <c r="V92" s="6"/>
       <c r="W92" s="6"/>
     </row>
-    <row r="93" ht="63.0" customHeight="1">
+    <row r="93" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -2866,7 +2927,7 @@
       <c r="V93" s="6"/>
       <c r="W93" s="6"/>
     </row>
-    <row r="94" ht="63.0" customHeight="1">
+    <row r="94" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -2891,7 +2952,7 @@
       <c r="V94" s="6"/>
       <c r="W94" s="6"/>
     </row>
-    <row r="95" ht="63.0" customHeight="1">
+    <row r="95" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -2916,7 +2977,7 @@
       <c r="V95" s="6"/>
       <c r="W95" s="6"/>
     </row>
-    <row r="96" ht="63.0" customHeight="1">
+    <row r="96" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -2941,7 +3002,7 @@
       <c r="V96" s="6"/>
       <c r="W96" s="6"/>
     </row>
-    <row r="97" ht="63.0" customHeight="1">
+    <row r="97" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -2966,7 +3027,7 @@
       <c r="V97" s="6"/>
       <c r="W97" s="6"/>
     </row>
-    <row r="98" ht="63.0" customHeight="1">
+    <row r="98" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -2991,7 +3052,7 @@
       <c r="V98" s="6"/>
       <c r="W98" s="6"/>
     </row>
-    <row r="99" ht="63.0" customHeight="1">
+    <row r="99" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -3016,7 +3077,7 @@
       <c r="V99" s="6"/>
       <c r="W99" s="6"/>
     </row>
-    <row r="100" ht="63.0" customHeight="1">
+    <row r="100" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -3041,7 +3102,7 @@
       <c r="V100" s="6"/>
       <c r="W100" s="6"/>
     </row>
-    <row r="101" ht="63.0" customHeight="1">
+    <row r="101" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -3066,7 +3127,7 @@
       <c r="V101" s="6"/>
       <c r="W101" s="6"/>
     </row>
-    <row r="102" ht="63.0" customHeight="1">
+    <row r="102" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -3091,7 +3152,7 @@
       <c r="V102" s="6"/>
       <c r="W102" s="6"/>
     </row>
-    <row r="103" ht="63.0" customHeight="1">
+    <row r="103" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -3116,7 +3177,7 @@
       <c r="V103" s="6"/>
       <c r="W103" s="6"/>
     </row>
-    <row r="104" ht="63.0" customHeight="1">
+    <row r="104" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -3141,7 +3202,7 @@
       <c r="V104" s="6"/>
       <c r="W104" s="6"/>
     </row>
-    <row r="105" ht="63.0" customHeight="1">
+    <row r="105" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -3166,7 +3227,7 @@
       <c r="V105" s="6"/>
       <c r="W105" s="6"/>
     </row>
-    <row r="106" ht="63.0" customHeight="1">
+    <row r="106" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -3191,7 +3252,7 @@
       <c r="V106" s="6"/>
       <c r="W106" s="6"/>
     </row>
-    <row r="107" ht="63.0" customHeight="1">
+    <row r="107" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -3216,7 +3277,7 @@
       <c r="V107" s="6"/>
       <c r="W107" s="6"/>
     </row>
-    <row r="108" ht="63.0" customHeight="1">
+    <row r="108" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -3241,7 +3302,7 @@
       <c r="V108" s="6"/>
       <c r="W108" s="6"/>
     </row>
-    <row r="109" ht="63.0" customHeight="1">
+    <row r="109" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -3266,7 +3327,7 @@
       <c r="V109" s="6"/>
       <c r="W109" s="6"/>
     </row>
-    <row r="110" ht="63.0" customHeight="1">
+    <row r="110" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -3291,7 +3352,7 @@
       <c r="V110" s="6"/>
       <c r="W110" s="6"/>
     </row>
-    <row r="111" ht="63.0" customHeight="1">
+    <row r="111" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -3316,7 +3377,7 @@
       <c r="V111" s="6"/>
       <c r="W111" s="6"/>
     </row>
-    <row r="112" ht="63.0" customHeight="1">
+    <row r="112" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -3341,7 +3402,7 @@
       <c r="V112" s="6"/>
       <c r="W112" s="6"/>
     </row>
-    <row r="113" ht="63.0" customHeight="1">
+    <row r="113" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -3366,7 +3427,7 @@
       <c r="V113" s="6"/>
       <c r="W113" s="6"/>
     </row>
-    <row r="114" ht="63.0" customHeight="1">
+    <row r="114" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -3391,7 +3452,7 @@
       <c r="V114" s="6"/>
       <c r="W114" s="6"/>
     </row>
-    <row r="115" ht="63.0" customHeight="1">
+    <row r="115" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -3416,7 +3477,7 @@
       <c r="V115" s="6"/>
       <c r="W115" s="6"/>
     </row>
-    <row r="116" ht="63.0" customHeight="1">
+    <row r="116" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -3441,7 +3502,7 @@
       <c r="V116" s="6"/>
       <c r="W116" s="6"/>
     </row>
-    <row r="117" ht="63.0" customHeight="1">
+    <row r="117" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -3466,7 +3527,7 @@
       <c r="V117" s="6"/>
       <c r="W117" s="6"/>
     </row>
-    <row r="118" ht="63.0" customHeight="1">
+    <row r="118" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -3491,7 +3552,7 @@
       <c r="V118" s="6"/>
       <c r="W118" s="6"/>
     </row>
-    <row r="119" ht="63.0" customHeight="1">
+    <row r="119" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -3516,7 +3577,7 @@
       <c r="V119" s="6"/>
       <c r="W119" s="6"/>
     </row>
-    <row r="120" ht="63.0" customHeight="1">
+    <row r="120" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -3541,7 +3602,7 @@
       <c r="V120" s="6"/>
       <c r="W120" s="6"/>
     </row>
-    <row r="121" ht="63.0" customHeight="1">
+    <row r="121" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -3566,7 +3627,7 @@
       <c r="V121" s="6"/>
       <c r="W121" s="6"/>
     </row>
-    <row r="122" ht="63.0" customHeight="1">
+    <row r="122" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -3591,7 +3652,7 @@
       <c r="V122" s="6"/>
       <c r="W122" s="6"/>
     </row>
-    <row r="123" ht="63.0" customHeight="1">
+    <row r="123" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -3616,7 +3677,7 @@
       <c r="V123" s="6"/>
       <c r="W123" s="6"/>
     </row>
-    <row r="124" ht="63.0" customHeight="1">
+    <row r="124" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -3641,7 +3702,7 @@
       <c r="V124" s="6"/>
       <c r="W124" s="6"/>
     </row>
-    <row r="125" ht="63.0" customHeight="1">
+    <row r="125" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -3666,7 +3727,7 @@
       <c r="V125" s="6"/>
       <c r="W125" s="6"/>
     </row>
-    <row r="126" ht="63.0" customHeight="1">
+    <row r="126" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -3691,7 +3752,7 @@
       <c r="V126" s="6"/>
       <c r="W126" s="6"/>
     </row>
-    <row r="127" ht="63.0" customHeight="1">
+    <row r="127" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -3716,7 +3777,7 @@
       <c r="V127" s="6"/>
       <c r="W127" s="6"/>
     </row>
-    <row r="128" ht="63.0" customHeight="1">
+    <row r="128" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -3741,7 +3802,7 @@
       <c r="V128" s="6"/>
       <c r="W128" s="6"/>
     </row>
-    <row r="129" ht="63.0" customHeight="1">
+    <row r="129" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -3766,7 +3827,7 @@
       <c r="V129" s="6"/>
       <c r="W129" s="6"/>
     </row>
-    <row r="130" ht="63.0" customHeight="1">
+    <row r="130" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -3791,7 +3852,7 @@
       <c r="V130" s="6"/>
       <c r="W130" s="6"/>
     </row>
-    <row r="131" ht="63.0" customHeight="1">
+    <row r="131" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -3816,7 +3877,7 @@
       <c r="V131" s="6"/>
       <c r="W131" s="6"/>
     </row>
-    <row r="132" ht="63.0" customHeight="1">
+    <row r="132" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -3841,7 +3902,7 @@
       <c r="V132" s="6"/>
       <c r="W132" s="6"/>
     </row>
-    <row r="133" ht="63.0" customHeight="1">
+    <row r="133" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -3866,7 +3927,7 @@
       <c r="V133" s="6"/>
       <c r="W133" s="6"/>
     </row>
-    <row r="134" ht="63.0" customHeight="1">
+    <row r="134" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -3891,7 +3952,7 @@
       <c r="V134" s="6"/>
       <c r="W134" s="6"/>
     </row>
-    <row r="135" ht="63.0" customHeight="1">
+    <row r="135" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -3916,7 +3977,7 @@
       <c r="V135" s="6"/>
       <c r="W135" s="6"/>
     </row>
-    <row r="136" ht="63.0" customHeight="1">
+    <row r="136" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -3941,7 +4002,7 @@
       <c r="V136" s="6"/>
       <c r="W136" s="6"/>
     </row>
-    <row r="137" ht="63.0" customHeight="1">
+    <row r="137" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -3966,7 +4027,7 @@
       <c r="V137" s="6"/>
       <c r="W137" s="6"/>
     </row>
-    <row r="138" ht="63.0" customHeight="1">
+    <row r="138" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -3991,7 +4052,7 @@
       <c r="V138" s="6"/>
       <c r="W138" s="6"/>
     </row>
-    <row r="139" ht="63.0" customHeight="1">
+    <row r="139" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -4016,7 +4077,7 @@
       <c r="V139" s="6"/>
       <c r="W139" s="6"/>
     </row>
-    <row r="140" ht="63.0" customHeight="1">
+    <row r="140" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -4041,7 +4102,7 @@
       <c r="V140" s="6"/>
       <c r="W140" s="6"/>
     </row>
-    <row r="141" ht="63.0" customHeight="1">
+    <row r="141" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -4066,7 +4127,7 @@
       <c r="V141" s="6"/>
       <c r="W141" s="6"/>
     </row>
-    <row r="142" ht="63.0" customHeight="1">
+    <row r="142" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -4091,7 +4152,7 @@
       <c r="V142" s="6"/>
       <c r="W142" s="6"/>
     </row>
-    <row r="143" ht="63.0" customHeight="1">
+    <row r="143" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -4116,7 +4177,7 @@
       <c r="V143" s="6"/>
       <c r="W143" s="6"/>
     </row>
-    <row r="144" ht="63.0" customHeight="1">
+    <row r="144" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -4141,7 +4202,7 @@
       <c r="V144" s="6"/>
       <c r="W144" s="6"/>
     </row>
-    <row r="145" ht="63.0" customHeight="1">
+    <row r="145" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -4166,7 +4227,7 @@
       <c r="V145" s="6"/>
       <c r="W145" s="6"/>
     </row>
-    <row r="146" ht="63.0" customHeight="1">
+    <row r="146" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -4191,7 +4252,7 @@
       <c r="V146" s="6"/>
       <c r="W146" s="6"/>
     </row>
-    <row r="147" ht="63.0" customHeight="1">
+    <row r="147" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -4216,7 +4277,7 @@
       <c r="V147" s="6"/>
       <c r="W147" s="6"/>
     </row>
-    <row r="148" ht="63.0" customHeight="1">
+    <row r="148" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -4241,7 +4302,7 @@
       <c r="V148" s="6"/>
       <c r="W148" s="6"/>
     </row>
-    <row r="149" ht="63.0" customHeight="1">
+    <row r="149" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -4266,7 +4327,7 @@
       <c r="V149" s="6"/>
       <c r="W149" s="6"/>
     </row>
-    <row r="150" ht="63.0" customHeight="1">
+    <row r="150" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -4291,7 +4352,7 @@
       <c r="V150" s="6"/>
       <c r="W150" s="6"/>
     </row>
-    <row r="151" ht="63.0" customHeight="1">
+    <row r="151" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -4316,7 +4377,7 @@
       <c r="V151" s="6"/>
       <c r="W151" s="6"/>
     </row>
-    <row r="152" ht="63.0" customHeight="1">
+    <row r="152" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -4341,7 +4402,7 @@
       <c r="V152" s="6"/>
       <c r="W152" s="6"/>
     </row>
-    <row r="153" ht="63.0" customHeight="1">
+    <row r="153" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -4366,7 +4427,7 @@
       <c r="V153" s="6"/>
       <c r="W153" s="6"/>
     </row>
-    <row r="154" ht="63.0" customHeight="1">
+    <row r="154" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -4391,7 +4452,7 @@
       <c r="V154" s="6"/>
       <c r="W154" s="6"/>
     </row>
-    <row r="155" ht="63.0" customHeight="1">
+    <row r="155" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -4416,7 +4477,7 @@
       <c r="V155" s="6"/>
       <c r="W155" s="6"/>
     </row>
-    <row r="156" ht="63.0" customHeight="1">
+    <row r="156" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -4441,7 +4502,7 @@
       <c r="V156" s="6"/>
       <c r="W156" s="6"/>
     </row>
-    <row r="157" ht="63.0" customHeight="1">
+    <row r="157" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -4466,7 +4527,7 @@
       <c r="V157" s="6"/>
       <c r="W157" s="6"/>
     </row>
-    <row r="158" ht="63.0" customHeight="1">
+    <row r="158" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -4491,7 +4552,7 @@
       <c r="V158" s="6"/>
       <c r="W158" s="6"/>
     </row>
-    <row r="159" ht="63.0" customHeight="1">
+    <row r="159" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -4516,7 +4577,7 @@
       <c r="V159" s="6"/>
       <c r="W159" s="6"/>
     </row>
-    <row r="160" ht="63.0" customHeight="1">
+    <row r="160" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
@@ -4541,7 +4602,7 @@
       <c r="V160" s="6"/>
       <c r="W160" s="6"/>
     </row>
-    <row r="161" ht="63.0" customHeight="1">
+    <row r="161" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -4566,7 +4627,7 @@
       <c r="V161" s="6"/>
       <c r="W161" s="6"/>
     </row>
-    <row r="162" ht="63.0" customHeight="1">
+    <row r="162" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -4591,7 +4652,7 @@
       <c r="V162" s="6"/>
       <c r="W162" s="6"/>
     </row>
-    <row r="163" ht="63.0" customHeight="1">
+    <row r="163" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -4616,7 +4677,7 @@
       <c r="V163" s="6"/>
       <c r="W163" s="6"/>
     </row>
-    <row r="164" ht="63.0" customHeight="1">
+    <row r="164" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -4641,7 +4702,7 @@
       <c r="V164" s="6"/>
       <c r="W164" s="6"/>
     </row>
-    <row r="165" ht="63.0" customHeight="1">
+    <row r="165" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -4666,7 +4727,7 @@
       <c r="V165" s="6"/>
       <c r="W165" s="6"/>
     </row>
-    <row r="166" ht="63.0" customHeight="1">
+    <row r="166" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -4691,7 +4752,7 @@
       <c r="V166" s="6"/>
       <c r="W166" s="6"/>
     </row>
-    <row r="167" ht="63.0" customHeight="1">
+    <row r="167" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -4716,7 +4777,7 @@
       <c r="V167" s="6"/>
       <c r="W167" s="6"/>
     </row>
-    <row r="168" ht="63.0" customHeight="1">
+    <row r="168" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -4741,7 +4802,7 @@
       <c r="V168" s="6"/>
       <c r="W168" s="6"/>
     </row>
-    <row r="169" ht="63.0" customHeight="1">
+    <row r="169" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -4766,7 +4827,7 @@
       <c r="V169" s="6"/>
       <c r="W169" s="6"/>
     </row>
-    <row r="170" ht="63.0" customHeight="1">
+    <row r="170" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -4791,7 +4852,7 @@
       <c r="V170" s="6"/>
       <c r="W170" s="6"/>
     </row>
-    <row r="171" ht="63.0" customHeight="1">
+    <row r="171" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -4816,7 +4877,7 @@
       <c r="V171" s="6"/>
       <c r="W171" s="6"/>
     </row>
-    <row r="172" ht="63.0" customHeight="1">
+    <row r="172" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -4841,7 +4902,7 @@
       <c r="V172" s="6"/>
       <c r="W172" s="6"/>
     </row>
-    <row r="173" ht="63.0" customHeight="1">
+    <row r="173" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -4866,7 +4927,7 @@
       <c r="V173" s="6"/>
       <c r="W173" s="6"/>
     </row>
-    <row r="174" ht="63.0" customHeight="1">
+    <row r="174" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -4891,7 +4952,7 @@
       <c r="V174" s="6"/>
       <c r="W174" s="6"/>
     </row>
-    <row r="175" ht="63.0" customHeight="1">
+    <row r="175" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -4916,7 +4977,7 @@
       <c r="V175" s="6"/>
       <c r="W175" s="6"/>
     </row>
-    <row r="176" ht="63.0" customHeight="1">
+    <row r="176" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -4941,7 +5002,7 @@
       <c r="V176" s="6"/>
       <c r="W176" s="6"/>
     </row>
-    <row r="177" ht="63.0" customHeight="1">
+    <row r="177" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -4966,7 +5027,7 @@
       <c r="V177" s="6"/>
       <c r="W177" s="6"/>
     </row>
-    <row r="178" ht="63.0" customHeight="1">
+    <row r="178" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -4991,7 +5052,7 @@
       <c r="V178" s="6"/>
       <c r="W178" s="6"/>
     </row>
-    <row r="179" ht="63.0" customHeight="1">
+    <row r="179" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -5016,7 +5077,7 @@
       <c r="V179" s="6"/>
       <c r="W179" s="6"/>
     </row>
-    <row r="180" ht="63.0" customHeight="1">
+    <row r="180" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -5041,7 +5102,7 @@
       <c r="V180" s="6"/>
       <c r="W180" s="6"/>
     </row>
-    <row r="181" ht="63.0" customHeight="1">
+    <row r="181" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -5066,7 +5127,7 @@
       <c r="V181" s="6"/>
       <c r="W181" s="6"/>
     </row>
-    <row r="182" ht="63.0" customHeight="1">
+    <row r="182" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -5091,7 +5152,7 @@
       <c r="V182" s="6"/>
       <c r="W182" s="6"/>
     </row>
-    <row r="183" ht="63.0" customHeight="1">
+    <row r="183" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -5116,7 +5177,7 @@
       <c r="V183" s="6"/>
       <c r="W183" s="6"/>
     </row>
-    <row r="184" ht="63.0" customHeight="1">
+    <row r="184" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -5141,7 +5202,7 @@
       <c r="V184" s="6"/>
       <c r="W184" s="6"/>
     </row>
-    <row r="185" ht="63.0" customHeight="1">
+    <row r="185" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -5166,7 +5227,7 @@
       <c r="V185" s="6"/>
       <c r="W185" s="6"/>
     </row>
-    <row r="186" ht="63.0" customHeight="1">
+    <row r="186" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -5191,7 +5252,7 @@
       <c r="V186" s="6"/>
       <c r="W186" s="6"/>
     </row>
-    <row r="187" ht="63.0" customHeight="1">
+    <row r="187" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -5216,7 +5277,7 @@
       <c r="V187" s="6"/>
       <c r="W187" s="6"/>
     </row>
-    <row r="188" ht="63.0" customHeight="1">
+    <row r="188" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -5241,7 +5302,7 @@
       <c r="V188" s="6"/>
       <c r="W188" s="6"/>
     </row>
-    <row r="189" ht="63.0" customHeight="1">
+    <row r="189" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -5266,7 +5327,7 @@
       <c r="V189" s="6"/>
       <c r="W189" s="6"/>
     </row>
-    <row r="190" ht="63.0" customHeight="1">
+    <row r="190" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -5291,7 +5352,7 @@
       <c r="V190" s="6"/>
       <c r="W190" s="6"/>
     </row>
-    <row r="191" ht="63.0" customHeight="1">
+    <row r="191" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -5316,7 +5377,7 @@
       <c r="V191" s="6"/>
       <c r="W191" s="6"/>
     </row>
-    <row r="192" ht="63.0" customHeight="1">
+    <row r="192" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -5341,7 +5402,7 @@
       <c r="V192" s="6"/>
       <c r="W192" s="6"/>
     </row>
-    <row r="193" ht="63.0" customHeight="1">
+    <row r="193" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -5366,7 +5427,7 @@
       <c r="V193" s="6"/>
       <c r="W193" s="6"/>
     </row>
-    <row r="194" ht="63.0" customHeight="1">
+    <row r="194" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -5391,7 +5452,7 @@
       <c r="V194" s="6"/>
       <c r="W194" s="6"/>
     </row>
-    <row r="195" ht="63.0" customHeight="1">
+    <row r="195" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -5416,7 +5477,7 @@
       <c r="V195" s="6"/>
       <c r="W195" s="6"/>
     </row>
-    <row r="196" ht="63.0" customHeight="1">
+    <row r="196" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -5441,7 +5502,7 @@
       <c r="V196" s="6"/>
       <c r="W196" s="6"/>
     </row>
-    <row r="197" ht="63.0" customHeight="1">
+    <row r="197" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -5466,7 +5527,7 @@
       <c r="V197" s="6"/>
       <c r="W197" s="6"/>
     </row>
-    <row r="198" ht="63.0" customHeight="1">
+    <row r="198" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -5491,7 +5552,7 @@
       <c r="V198" s="6"/>
       <c r="W198" s="6"/>
     </row>
-    <row r="199" ht="63.0" customHeight="1">
+    <row r="199" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -5516,7 +5577,7 @@
       <c r="V199" s="6"/>
       <c r="W199" s="6"/>
     </row>
-    <row r="200" ht="63.0" customHeight="1">
+    <row r="200" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -5541,7 +5602,7 @@
       <c r="V200" s="6"/>
       <c r="W200" s="6"/>
     </row>
-    <row r="201" ht="63.0" customHeight="1">
+    <row r="201" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -5566,7 +5627,7 @@
       <c r="V201" s="6"/>
       <c r="W201" s="6"/>
     </row>
-    <row r="202" ht="63.0" customHeight="1">
+    <row r="202" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -5591,7 +5652,7 @@
       <c r="V202" s="6"/>
       <c r="W202" s="6"/>
     </row>
-    <row r="203" ht="63.0" customHeight="1">
+    <row r="203" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
@@ -5616,7 +5677,7 @@
       <c r="V203" s="6"/>
       <c r="W203" s="6"/>
     </row>
-    <row r="204" ht="63.0" customHeight="1">
+    <row r="204" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
@@ -5641,7 +5702,7 @@
       <c r="V204" s="6"/>
       <c r="W204" s="6"/>
     </row>
-    <row r="205" ht="63.0" customHeight="1">
+    <row r="205" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
@@ -5666,7 +5727,7 @@
       <c r="V205" s="6"/>
       <c r="W205" s="6"/>
     </row>
-    <row r="206" ht="63.0" customHeight="1">
+    <row r="206" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -5691,7 +5752,7 @@
       <c r="V206" s="6"/>
       <c r="W206" s="6"/>
     </row>
-    <row r="207" ht="63.0" customHeight="1">
+    <row r="207" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -5716,7 +5777,7 @@
       <c r="V207" s="6"/>
       <c r="W207" s="6"/>
     </row>
-    <row r="208" ht="63.0" customHeight="1">
+    <row r="208" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
@@ -5741,7 +5802,7 @@
       <c r="V208" s="6"/>
       <c r="W208" s="6"/>
     </row>
-    <row r="209" ht="63.0" customHeight="1">
+    <row r="209" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -5766,7 +5827,7 @@
       <c r="V209" s="6"/>
       <c r="W209" s="6"/>
     </row>
-    <row r="210" ht="63.0" customHeight="1">
+    <row r="210" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
@@ -5791,7 +5852,7 @@
       <c r="V210" s="6"/>
       <c r="W210" s="6"/>
     </row>
-    <row r="211" ht="63.0" customHeight="1">
+    <row r="211" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -5816,7 +5877,7 @@
       <c r="V211" s="6"/>
       <c r="W211" s="6"/>
     </row>
-    <row r="212" ht="63.0" customHeight="1">
+    <row r="212" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -5841,7 +5902,7 @@
       <c r="V212" s="6"/>
       <c r="W212" s="6"/>
     </row>
-    <row r="213" ht="63.0" customHeight="1">
+    <row r="213" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
@@ -5866,7 +5927,7 @@
       <c r="V213" s="6"/>
       <c r="W213" s="6"/>
     </row>
-    <row r="214" ht="63.0" customHeight="1">
+    <row r="214" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -5891,7 +5952,7 @@
       <c r="V214" s="6"/>
       <c r="W214" s="6"/>
     </row>
-    <row r="215" ht="63.0" customHeight="1">
+    <row r="215" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
@@ -5916,7 +5977,7 @@
       <c r="V215" s="6"/>
       <c r="W215" s="6"/>
     </row>
-    <row r="216" ht="63.0" customHeight="1">
+    <row r="216" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
@@ -5941,7 +6002,7 @@
       <c r="V216" s="6"/>
       <c r="W216" s="6"/>
     </row>
-    <row r="217" ht="63.0" customHeight="1">
+    <row r="217" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -5966,7 +6027,7 @@
       <c r="V217" s="6"/>
       <c r="W217" s="6"/>
     </row>
-    <row r="218" ht="63.0" customHeight="1">
+    <row r="218" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -5991,7 +6052,7 @@
       <c r="V218" s="6"/>
       <c r="W218" s="6"/>
     </row>
-    <row r="219" ht="63.0" customHeight="1">
+    <row r="219" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="D219" s="6"/>
@@ -6015,7 +6076,7 @@
       <c r="V219" s="6"/>
       <c r="W219" s="6"/>
     </row>
-    <row r="220" ht="63.0" customHeight="1">
+    <row r="220" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B220" s="6"/>
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
@@ -6038,822 +6099,823 @@
       <c r="V220" s="6"/>
       <c r="W220" s="6"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="1.0" right="1.0" top="1.0"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.71"/>
-    <col customWidth="1" min="2" max="2" width="50.71"/>
-    <col customWidth="1" min="3" max="3" width="80.71"/>
-    <col customWidth="1" min="4" max="23" width="16.29"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" customWidth="1"/>
+    <col min="4" max="23" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -6876,15 +6938,15 @@
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
     </row>
-    <row r="2" ht="60.0" customHeight="1">
+    <row r="2" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -6907,7 +6969,7 @@
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
     </row>
-    <row r="3" ht="69.75" customHeight="1">
+    <row r="3" spans="1:23" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="14"/>
@@ -6932,7 +6994,7 @@
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
     </row>
-    <row r="4" ht="74.25" customHeight="1">
+    <row r="4" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -6957,7 +7019,7 @@
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
     </row>
-    <row r="5" ht="74.25" customHeight="1">
+    <row r="5" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -6982,7 +7044,7 @@
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
     </row>
-    <row r="6" ht="74.25" customHeight="1">
+    <row r="6" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -7007,7 +7069,7 @@
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
     </row>
-    <row r="7" ht="74.25" customHeight="1">
+    <row r="7" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7032,7 +7094,7 @@
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
     </row>
-    <row r="8" ht="13.5" customHeight="1">
+    <row r="8" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -7057,7 +7119,7 @@
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
+    <row r="9" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7082,7 +7144,7 @@
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
+    <row r="10" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7107,7 +7169,7 @@
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
+    <row r="11" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7132,7 +7194,7 @@
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
+    <row r="12" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7157,7 +7219,7 @@
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
+    <row r="13" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7182,7 +7244,7 @@
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
     </row>
-    <row r="14" ht="13.5" customHeight="1">
+    <row r="14" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7207,7 +7269,7 @@
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
     </row>
-    <row r="15" ht="13.5" customHeight="1">
+    <row r="15" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7232,7 +7294,7 @@
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
     </row>
-    <row r="16" ht="13.5" customHeight="1">
+    <row r="16" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7257,7 +7319,7 @@
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
     </row>
-    <row r="17" ht="13.5" customHeight="1">
+    <row r="17" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7282,7 +7344,7 @@
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
     </row>
-    <row r="18" ht="13.5" customHeight="1">
+    <row r="18" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7307,7 +7369,7 @@
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
     </row>
-    <row r="19" ht="13.5" customHeight="1">
+    <row r="19" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -7332,7 +7394,7 @@
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
     </row>
-    <row r="20" ht="13.5" customHeight="1">
+    <row r="20" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -7357,7 +7419,7 @@
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
     </row>
-    <row r="21" ht="13.5" customHeight="1">
+    <row r="21" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -7382,7 +7444,7 @@
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
     </row>
-    <row r="22" ht="13.5" customHeight="1">
+    <row r="22" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -7407,7 +7469,7 @@
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
     </row>
-    <row r="23" ht="13.5" customHeight="1">
+    <row r="23" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -7432,7 +7494,7 @@
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
     </row>
-    <row r="24" ht="13.5" customHeight="1">
+    <row r="24" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -7457,7 +7519,7 @@
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
     </row>
-    <row r="25" ht="13.5" customHeight="1">
+    <row r="25" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -7482,7 +7544,7 @@
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
     </row>
-    <row r="26" ht="13.5" customHeight="1">
+    <row r="26" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -7507,7 +7569,7 @@
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
     </row>
-    <row r="27" ht="13.5" customHeight="1">
+    <row r="27" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -7532,7 +7594,7 @@
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
     </row>
-    <row r="28" ht="13.5" customHeight="1">
+    <row r="28" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -7557,7 +7619,7 @@
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
     </row>
-    <row r="29" ht="13.5" customHeight="1">
+    <row r="29" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -7582,7 +7644,7 @@
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
     </row>
-    <row r="30" ht="13.5" customHeight="1">
+    <row r="30" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -7607,7 +7669,7 @@
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
     </row>
-    <row r="31" ht="13.5" customHeight="1">
+    <row r="31" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -7632,7 +7694,7 @@
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
     </row>
-    <row r="32" ht="13.5" customHeight="1">
+    <row r="32" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -7657,7 +7719,7 @@
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
     </row>
-    <row r="33" ht="13.5" customHeight="1">
+    <row r="33" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -7682,7 +7744,7 @@
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
     </row>
-    <row r="34" ht="13.5" customHeight="1">
+    <row r="34" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -7707,7 +7769,7 @@
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
     </row>
-    <row r="35" ht="13.5" customHeight="1">
+    <row r="35" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -7732,7 +7794,7 @@
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
     </row>
-    <row r="36" ht="13.5" customHeight="1">
+    <row r="36" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -7757,7 +7819,7 @@
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
     </row>
-    <row r="37" ht="13.5" customHeight="1">
+    <row r="37" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -7782,7 +7844,7 @@
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
     </row>
-    <row r="38" ht="13.5" customHeight="1">
+    <row r="38" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -7807,7 +7869,7 @@
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
     </row>
-    <row r="39" ht="13.5" customHeight="1">
+    <row r="39" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -7832,7 +7894,7 @@
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
     </row>
-    <row r="40" ht="13.5" customHeight="1">
+    <row r="40" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -7857,7 +7919,7 @@
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
     </row>
-    <row r="41" ht="13.5" customHeight="1">
+    <row r="41" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -7882,7 +7944,7 @@
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
     </row>
-    <row r="42" ht="13.5" customHeight="1">
+    <row r="42" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -7907,7 +7969,7 @@
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
     </row>
-    <row r="43" ht="13.5" customHeight="1">
+    <row r="43" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -7932,7 +7994,7 @@
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
     </row>
-    <row r="44" ht="13.5" customHeight="1">
+    <row r="44" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -7957,7 +8019,7 @@
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
     </row>
-    <row r="45" ht="13.5" customHeight="1">
+    <row r="45" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -7982,7 +8044,7 @@
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
     </row>
-    <row r="46" ht="13.5" customHeight="1">
+    <row r="46" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -8007,7 +8069,7 @@
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
     </row>
-    <row r="47" ht="13.5" customHeight="1">
+    <row r="47" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -8032,7 +8094,7 @@
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
     </row>
-    <row r="48" ht="13.5" customHeight="1">
+    <row r="48" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -8057,7 +8119,7 @@
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
     </row>
-    <row r="49" ht="13.5" customHeight="1">
+    <row r="49" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -8082,7 +8144,7 @@
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
     </row>
-    <row r="50" ht="13.5" customHeight="1">
+    <row r="50" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -8107,7 +8169,7 @@
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
     </row>
-    <row r="51" ht="13.5" customHeight="1">
+    <row r="51" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -8132,7 +8194,7 @@
       <c r="V51" s="6"/>
       <c r="W51" s="6"/>
     </row>
-    <row r="52" ht="13.5" customHeight="1">
+    <row r="52" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -8157,7 +8219,7 @@
       <c r="V52" s="6"/>
       <c r="W52" s="6"/>
     </row>
-    <row r="53" ht="13.5" customHeight="1">
+    <row r="53" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -8182,7 +8244,7 @@
       <c r="V53" s="6"/>
       <c r="W53" s="6"/>
     </row>
-    <row r="54" ht="13.5" customHeight="1">
+    <row r="54" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -8207,7 +8269,7 @@
       <c r="V54" s="6"/>
       <c r="W54" s="6"/>
     </row>
-    <row r="55" ht="13.5" customHeight="1">
+    <row r="55" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -8232,7 +8294,7 @@
       <c r="V55" s="6"/>
       <c r="W55" s="6"/>
     </row>
-    <row r="56" ht="13.5" customHeight="1">
+    <row r="56" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -8257,7 +8319,7 @@
       <c r="V56" s="6"/>
       <c r="W56" s="6"/>
     </row>
-    <row r="57" ht="13.5" customHeight="1">
+    <row r="57" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -8282,7 +8344,7 @@
       <c r="V57" s="6"/>
       <c r="W57" s="6"/>
     </row>
-    <row r="58" ht="13.5" customHeight="1">
+    <row r="58" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -8307,7 +8369,7 @@
       <c r="V58" s="6"/>
       <c r="W58" s="6"/>
     </row>
-    <row r="59" ht="13.5" customHeight="1">
+    <row r="59" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -8332,7 +8394,7 @@
       <c r="V59" s="6"/>
       <c r="W59" s="6"/>
     </row>
-    <row r="60" ht="13.5" customHeight="1">
+    <row r="60" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -8357,7 +8419,7 @@
       <c r="V60" s="6"/>
       <c r="W60" s="6"/>
     </row>
-    <row r="61" ht="13.5" customHeight="1">
+    <row r="61" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -8382,7 +8444,7 @@
       <c r="V61" s="6"/>
       <c r="W61" s="6"/>
     </row>
-    <row r="62" ht="13.5" customHeight="1">
+    <row r="62" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -8407,7 +8469,7 @@
       <c r="V62" s="6"/>
       <c r="W62" s="6"/>
     </row>
-    <row r="63" ht="13.5" customHeight="1">
+    <row r="63" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -8432,7 +8494,7 @@
       <c r="V63" s="6"/>
       <c r="W63" s="6"/>
     </row>
-    <row r="64" ht="13.5" customHeight="1">
+    <row r="64" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -8457,7 +8519,7 @@
       <c r="V64" s="6"/>
       <c r="W64" s="6"/>
     </row>
-    <row r="65" ht="13.5" customHeight="1">
+    <row r="65" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -8482,7 +8544,7 @@
       <c r="V65" s="6"/>
       <c r="W65" s="6"/>
     </row>
-    <row r="66" ht="13.5" customHeight="1">
+    <row r="66" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -8507,7 +8569,7 @@
       <c r="V66" s="6"/>
       <c r="W66" s="6"/>
     </row>
-    <row r="67" ht="13.5" customHeight="1">
+    <row r="67" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -8532,7 +8594,7 @@
       <c r="V67" s="6"/>
       <c r="W67" s="6"/>
     </row>
-    <row r="68" ht="13.5" customHeight="1">
+    <row r="68" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -8557,7 +8619,7 @@
       <c r="V68" s="6"/>
       <c r="W68" s="6"/>
     </row>
-    <row r="69" ht="13.5" customHeight="1">
+    <row r="69" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -8582,7 +8644,7 @@
       <c r="V69" s="6"/>
       <c r="W69" s="6"/>
     </row>
-    <row r="70" ht="13.5" customHeight="1">
+    <row r="70" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -8607,7 +8669,7 @@
       <c r="V70" s="6"/>
       <c r="W70" s="6"/>
     </row>
-    <row r="71" ht="13.5" customHeight="1">
+    <row r="71" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -8632,7 +8694,7 @@
       <c r="V71" s="6"/>
       <c r="W71" s="6"/>
     </row>
-    <row r="72" ht="13.5" customHeight="1">
+    <row r="72" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -8657,7 +8719,7 @@
       <c r="V72" s="6"/>
       <c r="W72" s="6"/>
     </row>
-    <row r="73" ht="13.5" customHeight="1">
+    <row r="73" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -8682,7 +8744,7 @@
       <c r="V73" s="6"/>
       <c r="W73" s="6"/>
     </row>
-    <row r="74" ht="13.5" customHeight="1">
+    <row r="74" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -8707,7 +8769,7 @@
       <c r="V74" s="6"/>
       <c r="W74" s="6"/>
     </row>
-    <row r="75" ht="13.5" customHeight="1">
+    <row r="75" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -8732,7 +8794,7 @@
       <c r="V75" s="6"/>
       <c r="W75" s="6"/>
     </row>
-    <row r="76" ht="13.5" customHeight="1">
+    <row r="76" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -8757,7 +8819,7 @@
       <c r="V76" s="6"/>
       <c r="W76" s="6"/>
     </row>
-    <row r="77" ht="13.5" customHeight="1">
+    <row r="77" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -8782,7 +8844,7 @@
       <c r="V77" s="6"/>
       <c r="W77" s="6"/>
     </row>
-    <row r="78" ht="13.5" customHeight="1">
+    <row r="78" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -8807,7 +8869,7 @@
       <c r="V78" s="6"/>
       <c r="W78" s="6"/>
     </row>
-    <row r="79" ht="13.5" customHeight="1">
+    <row r="79" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -8832,7 +8894,7 @@
       <c r="V79" s="6"/>
       <c r="W79" s="6"/>
     </row>
-    <row r="80" ht="13.5" customHeight="1">
+    <row r="80" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -8857,7 +8919,7 @@
       <c r="V80" s="6"/>
       <c r="W80" s="6"/>
     </row>
-    <row r="81" ht="13.5" customHeight="1">
+    <row r="81" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -8882,7 +8944,7 @@
       <c r="V81" s="6"/>
       <c r="W81" s="6"/>
     </row>
-    <row r="82" ht="13.5" customHeight="1">
+    <row r="82" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -8907,7 +8969,7 @@
       <c r="V82" s="6"/>
       <c r="W82" s="6"/>
     </row>
-    <row r="83" ht="13.5" customHeight="1">
+    <row r="83" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -8932,7 +8994,7 @@
       <c r="V83" s="6"/>
       <c r="W83" s="6"/>
     </row>
-    <row r="84" ht="13.5" customHeight="1">
+    <row r="84" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -8957,7 +9019,7 @@
       <c r="V84" s="6"/>
       <c r="W84" s="6"/>
     </row>
-    <row r="85" ht="13.5" customHeight="1">
+    <row r="85" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -8982,7 +9044,7 @@
       <c r="V85" s="6"/>
       <c r="W85" s="6"/>
     </row>
-    <row r="86" ht="13.5" customHeight="1">
+    <row r="86" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -9007,7 +9069,7 @@
       <c r="V86" s="6"/>
       <c r="W86" s="6"/>
     </row>
-    <row r="87" ht="13.5" customHeight="1">
+    <row r="87" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -9032,7 +9094,7 @@
       <c r="V87" s="6"/>
       <c r="W87" s="6"/>
     </row>
-    <row r="88" ht="13.5" customHeight="1">
+    <row r="88" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -9057,7 +9119,7 @@
       <c r="V88" s="6"/>
       <c r="W88" s="6"/>
     </row>
-    <row r="89" ht="13.5" customHeight="1">
+    <row r="89" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -9082,7 +9144,7 @@
       <c r="V89" s="6"/>
       <c r="W89" s="6"/>
     </row>
-    <row r="90" ht="13.5" customHeight="1">
+    <row r="90" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -9107,7 +9169,7 @@
       <c r="V90" s="6"/>
       <c r="W90" s="6"/>
     </row>
-    <row r="91" ht="13.5" customHeight="1">
+    <row r="91" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -9132,7 +9194,7 @@
       <c r="V91" s="6"/>
       <c r="W91" s="6"/>
     </row>
-    <row r="92" ht="13.5" customHeight="1">
+    <row r="92" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -9157,7 +9219,7 @@
       <c r="V92" s="6"/>
       <c r="W92" s="6"/>
     </row>
-    <row r="93" ht="13.5" customHeight="1">
+    <row r="93" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -9182,7 +9244,7 @@
       <c r="V93" s="6"/>
       <c r="W93" s="6"/>
     </row>
-    <row r="94" ht="13.5" customHeight="1">
+    <row r="94" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -9207,7 +9269,7 @@
       <c r="V94" s="6"/>
       <c r="W94" s="6"/>
     </row>
-    <row r="95" ht="13.5" customHeight="1">
+    <row r="95" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -9232,7 +9294,7 @@
       <c r="V95" s="6"/>
       <c r="W95" s="6"/>
     </row>
-    <row r="96" ht="13.5" customHeight="1">
+    <row r="96" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -9257,7 +9319,7 @@
       <c r="V96" s="6"/>
       <c r="W96" s="6"/>
     </row>
-    <row r="97" ht="13.5" customHeight="1">
+    <row r="97" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -9282,7 +9344,7 @@
       <c r="V97" s="6"/>
       <c r="W97" s="6"/>
     </row>
-    <row r="98" ht="13.5" customHeight="1">
+    <row r="98" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -9307,7 +9369,7 @@
       <c r="V98" s="6"/>
       <c r="W98" s="6"/>
     </row>
-    <row r="99" ht="13.5" customHeight="1">
+    <row r="99" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -9332,7 +9394,7 @@
       <c r="V99" s="6"/>
       <c r="W99" s="6"/>
     </row>
-    <row r="100" ht="13.5" customHeight="1">
+    <row r="100" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -9357,7 +9419,7 @@
       <c r="V100" s="6"/>
       <c r="W100" s="6"/>
     </row>
-    <row r="101" ht="13.5" customHeight="1">
+    <row r="101" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -9382,7 +9444,7 @@
       <c r="V101" s="6"/>
       <c r="W101" s="6"/>
     </row>
-    <row r="102" ht="13.5" customHeight="1">
+    <row r="102" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -9407,7 +9469,7 @@
       <c r="V102" s="6"/>
       <c r="W102" s="6"/>
     </row>
-    <row r="103" ht="13.5" customHeight="1">
+    <row r="103" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -9432,7 +9494,7 @@
       <c r="V103" s="6"/>
       <c r="W103" s="6"/>
     </row>
-    <row r="104" ht="13.5" customHeight="1">
+    <row r="104" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -9457,7 +9519,7 @@
       <c r="V104" s="6"/>
       <c r="W104" s="6"/>
     </row>
-    <row r="105" ht="13.5" customHeight="1">
+    <row r="105" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -9482,7 +9544,7 @@
       <c r="V105" s="6"/>
       <c r="W105" s="6"/>
     </row>
-    <row r="106" ht="13.5" customHeight="1">
+    <row r="106" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -9507,7 +9569,7 @@
       <c r="V106" s="6"/>
       <c r="W106" s="6"/>
     </row>
-    <row r="107" ht="13.5" customHeight="1">
+    <row r="107" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -9532,7 +9594,7 @@
       <c r="V107" s="6"/>
       <c r="W107" s="6"/>
     </row>
-    <row r="108" ht="13.5" customHeight="1">
+    <row r="108" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -9557,7 +9619,7 @@
       <c r="V108" s="6"/>
       <c r="W108" s="6"/>
     </row>
-    <row r="109" ht="13.5" customHeight="1">
+    <row r="109" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -9582,7 +9644,7 @@
       <c r="V109" s="6"/>
       <c r="W109" s="6"/>
     </row>
-    <row r="110" ht="13.5" customHeight="1">
+    <row r="110" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -9607,7 +9669,7 @@
       <c r="V110" s="6"/>
       <c r="W110" s="6"/>
     </row>
-    <row r="111" ht="13.5" customHeight="1">
+    <row r="111" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -9632,7 +9694,7 @@
       <c r="V111" s="6"/>
       <c r="W111" s="6"/>
     </row>
-    <row r="112" ht="13.5" customHeight="1">
+    <row r="112" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -9657,7 +9719,7 @@
       <c r="V112" s="6"/>
       <c r="W112" s="6"/>
     </row>
-    <row r="113" ht="13.5" customHeight="1">
+    <row r="113" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -9682,7 +9744,7 @@
       <c r="V113" s="6"/>
       <c r="W113" s="6"/>
     </row>
-    <row r="114" ht="13.5" customHeight="1">
+    <row r="114" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -9707,7 +9769,7 @@
       <c r="V114" s="6"/>
       <c r="W114" s="6"/>
     </row>
-    <row r="115" ht="13.5" customHeight="1">
+    <row r="115" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -9732,7 +9794,7 @@
       <c r="V115" s="6"/>
       <c r="W115" s="6"/>
     </row>
-    <row r="116" ht="13.5" customHeight="1">
+    <row r="116" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -9757,7 +9819,7 @@
       <c r="V116" s="6"/>
       <c r="W116" s="6"/>
     </row>
-    <row r="117" ht="13.5" customHeight="1">
+    <row r="117" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -9782,7 +9844,7 @@
       <c r="V117" s="6"/>
       <c r="W117" s="6"/>
     </row>
-    <row r="118" ht="13.5" customHeight="1">
+    <row r="118" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -9807,7 +9869,7 @@
       <c r="V118" s="6"/>
       <c r="W118" s="6"/>
     </row>
-    <row r="119" ht="13.5" customHeight="1">
+    <row r="119" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -9832,7 +9894,7 @@
       <c r="V119" s="6"/>
       <c r="W119" s="6"/>
     </row>
-    <row r="120" ht="13.5" customHeight="1">
+    <row r="120" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -9857,7 +9919,7 @@
       <c r="V120" s="6"/>
       <c r="W120" s="6"/>
     </row>
-    <row r="121" ht="13.5" customHeight="1">
+    <row r="121" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -9882,7 +9944,7 @@
       <c r="V121" s="6"/>
       <c r="W121" s="6"/>
     </row>
-    <row r="122" ht="13.5" customHeight="1">
+    <row r="122" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -9907,7 +9969,7 @@
       <c r="V122" s="6"/>
       <c r="W122" s="6"/>
     </row>
-    <row r="123" ht="13.5" customHeight="1">
+    <row r="123" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -9932,7 +9994,7 @@
       <c r="V123" s="6"/>
       <c r="W123" s="6"/>
     </row>
-    <row r="124" ht="13.5" customHeight="1">
+    <row r="124" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -9957,7 +10019,7 @@
       <c r="V124" s="6"/>
       <c r="W124" s="6"/>
     </row>
-    <row r="125" ht="13.5" customHeight="1">
+    <row r="125" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -9982,7 +10044,7 @@
       <c r="V125" s="6"/>
       <c r="W125" s="6"/>
     </row>
-    <row r="126" ht="13.5" customHeight="1">
+    <row r="126" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -10007,7 +10069,7 @@
       <c r="V126" s="6"/>
       <c r="W126" s="6"/>
     </row>
-    <row r="127" ht="13.5" customHeight="1">
+    <row r="127" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -10032,7 +10094,7 @@
       <c r="V127" s="6"/>
       <c r="W127" s="6"/>
     </row>
-    <row r="128" ht="13.5" customHeight="1">
+    <row r="128" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -10057,7 +10119,7 @@
       <c r="V128" s="6"/>
       <c r="W128" s="6"/>
     </row>
-    <row r="129" ht="13.5" customHeight="1">
+    <row r="129" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -10082,7 +10144,7 @@
       <c r="V129" s="6"/>
       <c r="W129" s="6"/>
     </row>
-    <row r="130" ht="13.5" customHeight="1">
+    <row r="130" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -10107,7 +10169,7 @@
       <c r="V130" s="6"/>
       <c r="W130" s="6"/>
     </row>
-    <row r="131" ht="13.5" customHeight="1">
+    <row r="131" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -10132,7 +10194,7 @@
       <c r="V131" s="6"/>
       <c r="W131" s="6"/>
     </row>
-    <row r="132" ht="13.5" customHeight="1">
+    <row r="132" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -10157,7 +10219,7 @@
       <c r="V132" s="6"/>
       <c r="W132" s="6"/>
     </row>
-    <row r="133" ht="13.5" customHeight="1">
+    <row r="133" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -10182,7 +10244,7 @@
       <c r="V133" s="6"/>
       <c r="W133" s="6"/>
     </row>
-    <row r="134" ht="13.5" customHeight="1">
+    <row r="134" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -10207,7 +10269,7 @@
       <c r="V134" s="6"/>
       <c r="W134" s="6"/>
     </row>
-    <row r="135" ht="13.5" customHeight="1">
+    <row r="135" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -10232,7 +10294,7 @@
       <c r="V135" s="6"/>
       <c r="W135" s="6"/>
     </row>
-    <row r="136" ht="13.5" customHeight="1">
+    <row r="136" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -10257,7 +10319,7 @@
       <c r="V136" s="6"/>
       <c r="W136" s="6"/>
     </row>
-    <row r="137" ht="13.5" customHeight="1">
+    <row r="137" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -10282,7 +10344,7 @@
       <c r="V137" s="6"/>
       <c r="W137" s="6"/>
     </row>
-    <row r="138" ht="13.5" customHeight="1">
+    <row r="138" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -10307,7 +10369,7 @@
       <c r="V138" s="6"/>
       <c r="W138" s="6"/>
     </row>
-    <row r="139" ht="13.5" customHeight="1">
+    <row r="139" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -10332,7 +10394,7 @@
       <c r="V139" s="6"/>
       <c r="W139" s="6"/>
     </row>
-    <row r="140" ht="13.5" customHeight="1">
+    <row r="140" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -10357,7 +10419,7 @@
       <c r="V140" s="6"/>
       <c r="W140" s="6"/>
     </row>
-    <row r="141" ht="13.5" customHeight="1">
+    <row r="141" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -10382,7 +10444,7 @@
       <c r="V141" s="6"/>
       <c r="W141" s="6"/>
     </row>
-    <row r="142" ht="13.5" customHeight="1">
+    <row r="142" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -10407,7 +10469,7 @@
       <c r="V142" s="6"/>
       <c r="W142" s="6"/>
     </row>
-    <row r="143" ht="13.5" customHeight="1">
+    <row r="143" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -10432,7 +10494,7 @@
       <c r="V143" s="6"/>
       <c r="W143" s="6"/>
     </row>
-    <row r="144" ht="13.5" customHeight="1">
+    <row r="144" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -10457,7 +10519,7 @@
       <c r="V144" s="6"/>
       <c r="W144" s="6"/>
     </row>
-    <row r="145" ht="13.5" customHeight="1">
+    <row r="145" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -10482,7 +10544,7 @@
       <c r="V145" s="6"/>
       <c r="W145" s="6"/>
     </row>
-    <row r="146" ht="13.5" customHeight="1">
+    <row r="146" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -10507,7 +10569,7 @@
       <c r="V146" s="6"/>
       <c r="W146" s="6"/>
     </row>
-    <row r="147" ht="13.5" customHeight="1">
+    <row r="147" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -10532,7 +10594,7 @@
       <c r="V147" s="6"/>
       <c r="W147" s="6"/>
     </row>
-    <row r="148" ht="13.5" customHeight="1">
+    <row r="148" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -10557,7 +10619,7 @@
       <c r="V148" s="6"/>
       <c r="W148" s="6"/>
     </row>
-    <row r="149" ht="13.5" customHeight="1">
+    <row r="149" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -10582,7 +10644,7 @@
       <c r="V149" s="6"/>
       <c r="W149" s="6"/>
     </row>
-    <row r="150" ht="13.5" customHeight="1">
+    <row r="150" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -10607,7 +10669,7 @@
       <c r="V150" s="6"/>
       <c r="W150" s="6"/>
     </row>
-    <row r="151" ht="13.5" customHeight="1">
+    <row r="151" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -10632,7 +10694,7 @@
       <c r="V151" s="6"/>
       <c r="W151" s="6"/>
     </row>
-    <row r="152" ht="13.5" customHeight="1">
+    <row r="152" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -10657,7 +10719,7 @@
       <c r="V152" s="6"/>
       <c r="W152" s="6"/>
     </row>
-    <row r="153" ht="13.5" customHeight="1">
+    <row r="153" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -10682,7 +10744,7 @@
       <c r="V153" s="6"/>
       <c r="W153" s="6"/>
     </row>
-    <row r="154" ht="13.5" customHeight="1">
+    <row r="154" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -10707,7 +10769,7 @@
       <c r="V154" s="6"/>
       <c r="W154" s="6"/>
     </row>
-    <row r="155" ht="13.5" customHeight="1">
+    <row r="155" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -10732,7 +10794,7 @@
       <c r="V155" s="6"/>
       <c r="W155" s="6"/>
     </row>
-    <row r="156" ht="13.5" customHeight="1">
+    <row r="156" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -10757,7 +10819,7 @@
       <c r="V156" s="6"/>
       <c r="W156" s="6"/>
     </row>
-    <row r="157" ht="13.5" customHeight="1">
+    <row r="157" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -10782,7 +10844,7 @@
       <c r="V157" s="6"/>
       <c r="W157" s="6"/>
     </row>
-    <row r="158" ht="13.5" customHeight="1">
+    <row r="158" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -10807,7 +10869,7 @@
       <c r="V158" s="6"/>
       <c r="W158" s="6"/>
     </row>
-    <row r="159" ht="13.5" customHeight="1">
+    <row r="159" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -10832,7 +10894,7 @@
       <c r="V159" s="6"/>
       <c r="W159" s="6"/>
     </row>
-    <row r="160" ht="13.5" customHeight="1">
+    <row r="160" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
@@ -10857,7 +10919,7 @@
       <c r="V160" s="6"/>
       <c r="W160" s="6"/>
     </row>
-    <row r="161" ht="13.5" customHeight="1">
+    <row r="161" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -10882,7 +10944,7 @@
       <c r="V161" s="6"/>
       <c r="W161" s="6"/>
     </row>
-    <row r="162" ht="13.5" customHeight="1">
+    <row r="162" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -10907,7 +10969,7 @@
       <c r="V162" s="6"/>
       <c r="W162" s="6"/>
     </row>
-    <row r="163" ht="13.5" customHeight="1">
+    <row r="163" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -10932,7 +10994,7 @@
       <c r="V163" s="6"/>
       <c r="W163" s="6"/>
     </row>
-    <row r="164" ht="13.5" customHeight="1">
+    <row r="164" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -10957,7 +11019,7 @@
       <c r="V164" s="6"/>
       <c r="W164" s="6"/>
     </row>
-    <row r="165" ht="13.5" customHeight="1">
+    <row r="165" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -10982,7 +11044,7 @@
       <c r="V165" s="6"/>
       <c r="W165" s="6"/>
     </row>
-    <row r="166" ht="13.5" customHeight="1">
+    <row r="166" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -11007,7 +11069,7 @@
       <c r="V166" s="6"/>
       <c r="W166" s="6"/>
     </row>
-    <row r="167" ht="13.5" customHeight="1">
+    <row r="167" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -11032,7 +11094,7 @@
       <c r="V167" s="6"/>
       <c r="W167" s="6"/>
     </row>
-    <row r="168" ht="13.5" customHeight="1">
+    <row r="168" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -11057,7 +11119,7 @@
       <c r="V168" s="6"/>
       <c r="W168" s="6"/>
     </row>
-    <row r="169" ht="13.5" customHeight="1">
+    <row r="169" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -11082,7 +11144,7 @@
       <c r="V169" s="6"/>
       <c r="W169" s="6"/>
     </row>
-    <row r="170" ht="13.5" customHeight="1">
+    <row r="170" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -11107,7 +11169,7 @@
       <c r="V170" s="6"/>
       <c r="W170" s="6"/>
     </row>
-    <row r="171" ht="13.5" customHeight="1">
+    <row r="171" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -11132,7 +11194,7 @@
       <c r="V171" s="6"/>
       <c r="W171" s="6"/>
     </row>
-    <row r="172" ht="13.5" customHeight="1">
+    <row r="172" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -11157,7 +11219,7 @@
       <c r="V172" s="6"/>
       <c r="W172" s="6"/>
     </row>
-    <row r="173" ht="13.5" customHeight="1">
+    <row r="173" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -11182,7 +11244,7 @@
       <c r="V173" s="6"/>
       <c r="W173" s="6"/>
     </row>
-    <row r="174" ht="13.5" customHeight="1">
+    <row r="174" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -11207,7 +11269,7 @@
       <c r="V174" s="6"/>
       <c r="W174" s="6"/>
     </row>
-    <row r="175" ht="13.5" customHeight="1">
+    <row r="175" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -11232,7 +11294,7 @@
       <c r="V175" s="6"/>
       <c r="W175" s="6"/>
     </row>
-    <row r="176" ht="13.5" customHeight="1">
+    <row r="176" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -11257,7 +11319,7 @@
       <c r="V176" s="6"/>
       <c r="W176" s="6"/>
     </row>
-    <row r="177" ht="13.5" customHeight="1">
+    <row r="177" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -11282,7 +11344,7 @@
       <c r="V177" s="6"/>
       <c r="W177" s="6"/>
     </row>
-    <row r="178" ht="13.5" customHeight="1">
+    <row r="178" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -11307,7 +11369,7 @@
       <c r="V178" s="6"/>
       <c r="W178" s="6"/>
     </row>
-    <row r="179" ht="13.5" customHeight="1">
+    <row r="179" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -11332,7 +11394,7 @@
       <c r="V179" s="6"/>
       <c r="W179" s="6"/>
     </row>
-    <row r="180" ht="13.5" customHeight="1">
+    <row r="180" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -11357,7 +11419,7 @@
       <c r="V180" s="6"/>
       <c r="W180" s="6"/>
     </row>
-    <row r="181" ht="13.5" customHeight="1">
+    <row r="181" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -11382,7 +11444,7 @@
       <c r="V181" s="6"/>
       <c r="W181" s="6"/>
     </row>
-    <row r="182" ht="13.5" customHeight="1">
+    <row r="182" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -11407,7 +11469,7 @@
       <c r="V182" s="6"/>
       <c r="W182" s="6"/>
     </row>
-    <row r="183" ht="13.5" customHeight="1">
+    <row r="183" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -11432,7 +11494,7 @@
       <c r="V183" s="6"/>
       <c r="W183" s="6"/>
     </row>
-    <row r="184" ht="13.5" customHeight="1">
+    <row r="184" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -11457,7 +11519,7 @@
       <c r="V184" s="6"/>
       <c r="W184" s="6"/>
     </row>
-    <row r="185" ht="13.5" customHeight="1">
+    <row r="185" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -11482,7 +11544,7 @@
       <c r="V185" s="6"/>
       <c r="W185" s="6"/>
     </row>
-    <row r="186" ht="13.5" customHeight="1">
+    <row r="186" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -11507,7 +11569,7 @@
       <c r="V186" s="6"/>
       <c r="W186" s="6"/>
     </row>
-    <row r="187" ht="13.5" customHeight="1">
+    <row r="187" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -11532,7 +11594,7 @@
       <c r="V187" s="6"/>
       <c r="W187" s="6"/>
     </row>
-    <row r="188" ht="13.5" customHeight="1">
+    <row r="188" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -11557,7 +11619,7 @@
       <c r="V188" s="6"/>
       <c r="W188" s="6"/>
     </row>
-    <row r="189" ht="13.5" customHeight="1">
+    <row r="189" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -11582,7 +11644,7 @@
       <c r="V189" s="6"/>
       <c r="W189" s="6"/>
     </row>
-    <row r="190" ht="13.5" customHeight="1">
+    <row r="190" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -11607,7 +11669,7 @@
       <c r="V190" s="6"/>
       <c r="W190" s="6"/>
     </row>
-    <row r="191" ht="13.5" customHeight="1">
+    <row r="191" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -11632,7 +11694,7 @@
       <c r="V191" s="6"/>
       <c r="W191" s="6"/>
     </row>
-    <row r="192" ht="13.5" customHeight="1">
+    <row r="192" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -11657,7 +11719,7 @@
       <c r="V192" s="6"/>
       <c r="W192" s="6"/>
     </row>
-    <row r="193" ht="13.5" customHeight="1">
+    <row r="193" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -11682,7 +11744,7 @@
       <c r="V193" s="6"/>
       <c r="W193" s="6"/>
     </row>
-    <row r="194" ht="13.5" customHeight="1">
+    <row r="194" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -11707,7 +11769,7 @@
       <c r="V194" s="6"/>
       <c r="W194" s="6"/>
     </row>
-    <row r="195" ht="13.5" customHeight="1">
+    <row r="195" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -11732,7 +11794,7 @@
       <c r="V195" s="6"/>
       <c r="W195" s="6"/>
     </row>
-    <row r="196" ht="13.5" customHeight="1">
+    <row r="196" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -11757,7 +11819,7 @@
       <c r="V196" s="6"/>
       <c r="W196" s="6"/>
     </row>
-    <row r="197" ht="13.5" customHeight="1">
+    <row r="197" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -11782,7 +11844,7 @@
       <c r="V197" s="6"/>
       <c r="W197" s="6"/>
     </row>
-    <row r="198" ht="13.5" customHeight="1">
+    <row r="198" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -11807,7 +11869,7 @@
       <c r="V198" s="6"/>
       <c r="W198" s="6"/>
     </row>
-    <row r="199" ht="13.5" customHeight="1">
+    <row r="199" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -11832,7 +11894,7 @@
       <c r="V199" s="6"/>
       <c r="W199" s="6"/>
     </row>
-    <row r="200" ht="13.5" customHeight="1">
+    <row r="200" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -11857,7 +11919,7 @@
       <c r="V200" s="6"/>
       <c r="W200" s="6"/>
     </row>
-    <row r="201" ht="13.5" customHeight="1">
+    <row r="201" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -11882,7 +11944,7 @@
       <c r="V201" s="6"/>
       <c r="W201" s="6"/>
     </row>
-    <row r="202" ht="13.5" customHeight="1">
+    <row r="202" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -11907,7 +11969,7 @@
       <c r="V202" s="6"/>
       <c r="W202" s="6"/>
     </row>
-    <row r="203" ht="13.5" customHeight="1">
+    <row r="203" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
@@ -11932,7 +11994,7 @@
       <c r="V203" s="6"/>
       <c r="W203" s="6"/>
     </row>
-    <row r="204" ht="13.5" customHeight="1">
+    <row r="204" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
@@ -11957,7 +12019,7 @@
       <c r="V204" s="6"/>
       <c r="W204" s="6"/>
     </row>
-    <row r="205" ht="13.5" customHeight="1">
+    <row r="205" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
@@ -11982,7 +12044,7 @@
       <c r="V205" s="6"/>
       <c r="W205" s="6"/>
     </row>
-    <row r="206" ht="13.5" customHeight="1">
+    <row r="206" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -12007,7 +12069,7 @@
       <c r="V206" s="6"/>
       <c r="W206" s="6"/>
     </row>
-    <row r="207" ht="13.5" customHeight="1">
+    <row r="207" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -12032,7 +12094,7 @@
       <c r="V207" s="6"/>
       <c r="W207" s="6"/>
     </row>
-    <row r="208" ht="13.5" customHeight="1">
+    <row r="208" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
@@ -12057,7 +12119,7 @@
       <c r="V208" s="6"/>
       <c r="W208" s="6"/>
     </row>
-    <row r="209" ht="13.5" customHeight="1">
+    <row r="209" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -12082,7 +12144,7 @@
       <c r="V209" s="6"/>
       <c r="W209" s="6"/>
     </row>
-    <row r="210" ht="13.5" customHeight="1">
+    <row r="210" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
@@ -12107,7 +12169,7 @@
       <c r="V210" s="6"/>
       <c r="W210" s="6"/>
     </row>
-    <row r="211" ht="13.5" customHeight="1">
+    <row r="211" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -12132,7 +12194,7 @@
       <c r="V211" s="6"/>
       <c r="W211" s="6"/>
     </row>
-    <row r="212" ht="13.5" customHeight="1">
+    <row r="212" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -12157,7 +12219,7 @@
       <c r="V212" s="6"/>
       <c r="W212" s="6"/>
     </row>
-    <row r="213" ht="13.5" customHeight="1">
+    <row r="213" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
@@ -12182,7 +12244,7 @@
       <c r="V213" s="6"/>
       <c r="W213" s="6"/>
     </row>
-    <row r="214" ht="13.5" customHeight="1">
+    <row r="214" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -12207,7 +12269,7 @@
       <c r="V214" s="6"/>
       <c r="W214" s="6"/>
     </row>
-    <row r="215" ht="13.5" customHeight="1">
+    <row r="215" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
@@ -12232,7 +12294,7 @@
       <c r="V215" s="6"/>
       <c r="W215" s="6"/>
     </row>
-    <row r="216" ht="13.5" customHeight="1">
+    <row r="216" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
@@ -12257,7 +12319,7 @@
       <c r="V216" s="6"/>
       <c r="W216" s="6"/>
     </row>
-    <row r="217" ht="13.5" customHeight="1">
+    <row r="217" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -12282,7 +12344,7 @@
       <c r="V217" s="6"/>
       <c r="W217" s="6"/>
     </row>
-    <row r="218" ht="13.5" customHeight="1">
+    <row r="218" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -12307,7 +12369,7 @@
       <c r="V218" s="6"/>
       <c r="W218" s="6"/>
     </row>
-    <row r="219" ht="13.5" customHeight="1">
+    <row r="219" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -12332,7 +12394,7 @@
       <c r="V219" s="6"/>
       <c r="W219" s="6"/>
     </row>
-    <row r="220" ht="13.5" customHeight="1">
+    <row r="220" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
@@ -12357,793 +12419,791 @@
       <c r="V220" s="6"/>
       <c r="W220" s="6"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="1.0" right="1.0" top="1.0"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>